--- a/CH_scores.xlsx
+++ b/CH_scores.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreafabry/Documents/dsi-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFDF74D-3889-C04C-8C7E-B53EAC0852A0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAE1FD9-CBA7-8D49-B0C9-5C1CDB8986A9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{07CC4ED7-C488-544D-BC6E-9C7AD2DE4E07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>CH_score_k6</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>difference</t>
+  </si>
+  <si>
+    <t>CH_score_k9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+      <selection activeCell="C15" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +532,7 @@
         <v>390.96799900428198</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C14" si="1">B10-B11</f>
+        <f t="shared" ref="C10:C16" si="1">B10-B11</f>
         <v>101.089579903887</v>
       </c>
     </row>
@@ -587,6 +590,22 @@
       </c>
       <c r="B15" s="1">
         <v>131.13708432218101</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>6.0597366104880166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>125.07734771169299</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>18.274700674201995</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
